--- a/biology/Zoologie/Espadarana_prosoblepon/Espadarana_prosoblepon.xlsx
+++ b/biology/Zoologie/Espadarana_prosoblepon/Espadarana_prosoblepon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espadarana prosoblepon est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espadarana prosoblepon est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre du niveau de la mer à 1 935 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre du niveau de la mer à 1 935 m d'altitude, :
 dans l'est du Honduras ;
 au Nicaragua ;
 au Costa Rica ;
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centrolene prosoblepon mesure de 21 à 28 mm pour les mâles et 25 à 31 mm pour les femelles[3]. Sa coloration est vert émeraude avec, généralement, des taches noires. Certains individus présentent des motifs ressemblant à des ocelles. Le ventre est jaune.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centrolene prosoblepon mesure de 21 à 28 mm pour les mâles et 25 à 31 mm pour les femelles. Sa coloration est vert émeraude avec, généralement, des taches noires. Certains individus présentent des motifs ressemblant à des ocelles. Le ventre est jaune.
 Ses os et, dans une moindre mesure ses organes internes, sont visibles à travers sa peau.
 </t>
         </is>
@@ -579,9 +595,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centrolene prosoblepon est une espèce nocturne et essentiellement terrestre. Les mâles sont très territoriaux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centrolene prosoblepon est une espèce nocturne et essentiellement terrestre. Les mâles sont très territoriaux.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ponte a lieu à la saison de pluies, soit de mai à novembre. Les œufs sont pondus sous les feuilles, les branches ou rochers moussus surplombant un plan d'eau[3]. L'éclosion a lieu une dizaine de jours après la ponte. Les tétards tombent dans l'eau, où ils poursuivent leur développement.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ponte a lieu à la saison de pluies, soit de mai à novembre. Les œufs sont pondus sous les feuilles, les branches ou rochers moussus surplombant un plan d'eau. L'éclosion a lieu une dizaine de jours après la ponte. Les tétards tombent dans l'eau, où ils poursuivent leur développement.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boettger, 1892 : Katalog der Batrachier-Sammlung im Museum der Senckenbergischen Naturforschenden Gesellshaft in Frankfurt am Main. Frankfurt am Main, Gebrüder Knauer, p. 1-73 (texte intégral).</t>
         </is>
